--- a/RPA_Study/RPA_EXCEL/problem1.xlsx
+++ b/RPA_Study/RPA_EXCEL/problem1.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SSAFY\Desktop\RPA_project\RPA_Study\RPA_EXCEL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\RPA_project\RPA_Study\RPA_EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9AB20159-5D2D-4616-AC37-22F7795A7238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B04D623-1F59-4567-A95F-34253598C35B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4930" yWindow="1190" windowWidth="21600" windowHeight="12670"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="학번, 출석, 퀴즈1, 퀴즈2, 중간고사, 기말고사, 프" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <extLst>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -51,7 +46,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -996,14 +991,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1026,7 +1023,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1049,7 +1046,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1072,7 +1069,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1095,7 +1092,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1118,7 +1115,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1141,7 +1138,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1164,7 +1161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1187,7 +1184,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1210,7 +1207,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1233,7 +1230,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
